--- a/Improgress/2. Artifact and Deliverable/Test case/module2/K22T1_TeamBDS_TC_Quenmatkhau_ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module2/K22T1_TeamBDS_TC_Quenmatkhau_ver1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700EA15E-8FC6-40AE-B7FD-4542DFCAF736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA16AEAA-5170-4933-A392-6FEC9E9AE0A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="129">
   <si>
     <t>Author</t>
   </si>
@@ -421,6 +421,18 @@
   </si>
   <si>
     <t>TC-QMK-13</t>
+  </si>
+  <si>
+    <t>Người dùng truy cập vào  App /Web uản lý công ty BDS</t>
+  </si>
+  <si>
+    <t>Người dùng truy cập vào  App /Web Quản lý công ty BDS</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Người dùng nhập mật khẩu mới vào form " Reset password " để tạo mật khẩu mới '</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1132,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1273,6 +1285,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1357,97 +1405,76 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1466,9 +1493,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1795,7 +1819,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1811,31 +1835,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="35"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
@@ -1900,12 +1924,12 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1946,8 +1970,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1964,78 +1988,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="71"/>
+      <c r="D2" s="83"/>
       <c r="E2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="76" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="77"/>
+      <c r="D3" s="89"/>
       <c r="E3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="79"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62">
+      <c r="B4" s="73"/>
+      <c r="C4" s="74">
         <v>43952</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="65"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
     </row>
     <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
@@ -2428,9 +2452,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E67" sqref="E67:E74"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2451,26 +2475,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
     </row>
     <row r="2" spans="1:18" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="38"/>
@@ -2512,1306 +2536,1382 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
       <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:18" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="85"/>
-      <c r="B5" s="100" t="s">
+      <c r="A5" s="100"/>
+      <c r="B5" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="89">
+      <c r="F5" s="52">
         <v>1</v>
       </c>
-      <c r="G5" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91" t="s">
+      <c r="G5" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="96" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="92"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="89">
+      <c r="J5" s="103" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="56" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="101"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="52">
         <v>2</v>
       </c>
-      <c r="G6" s="95" t="s">
+      <c r="G6" s="55" t="s">
         <v>78</v>
       </c>
       <c r="H6" s="42"/>
       <c r="I6" s="42" t="s">
         <v>79</v>
       </c>
+      <c r="J6" s="103"/>
     </row>
     <row r="7" spans="1:18" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="92"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="89">
+      <c r="A7" s="101"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="52">
         <v>3</v>
       </c>
-      <c r="G7" s="95" t="s">
+      <c r="G7" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="105" t="s">
+      <c r="H7" s="61" t="s">
         <v>81</v>
       </c>
       <c r="I7" s="42"/>
+      <c r="J7" s="103"/>
     </row>
     <row r="8" spans="1:18" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="92"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="89">
+      <c r="A8" s="101"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="52">
         <v>4</v>
       </c>
-      <c r="G8" s="95" t="s">
+      <c r="G8" s="55" t="s">
         <v>82</v>
       </c>
       <c r="H8" s="42"/>
       <c r="I8" s="42" t="s">
         <v>83</v>
       </c>
+      <c r="J8" s="103"/>
     </row>
     <row r="9" spans="1:18" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="92"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="89">
+      <c r="A9" s="101"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="52">
         <v>5</v>
       </c>
-      <c r="G9" s="95" t="s">
+      <c r="G9" s="55" t="s">
         <v>84</v>
       </c>
       <c r="H9" s="42"/>
       <c r="I9" s="42"/>
+      <c r="J9" s="103"/>
     </row>
     <row r="10" spans="1:18" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="92"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="89">
+      <c r="A10" s="101"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="52">
         <v>6</v>
       </c>
-      <c r="G10" s="95"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
+      <c r="J10" s="103"/>
     </row>
     <row r="11" spans="1:18" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="85"/>
-      <c r="B11" s="100" t="s">
+      <c r="A11" s="100"/>
+      <c r="B11" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="88" t="s">
+      <c r="E11" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="89">
+      <c r="F11" s="52">
         <v>1</v>
       </c>
-      <c r="G11" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91" t="s">
+      <c r="G11" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="96" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="92"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="89">
+      <c r="J11" s="92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="56" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="101"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="52">
         <v>2</v>
       </c>
-      <c r="G12" s="95" t="s">
+      <c r="G12" s="55" t="s">
         <v>78</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="42" t="s">
         <v>79</v>
       </c>
+      <c r="J12" s="93"/>
     </row>
     <row r="13" spans="1:18" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="92"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="89">
+      <c r="A13" s="101"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="52">
         <v>3</v>
       </c>
-      <c r="G13" s="95" t="s">
+      <c r="G13" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="105" t="s">
+      <c r="H13" s="61" t="s">
         <v>81</v>
       </c>
       <c r="I13" s="42"/>
+      <c r="J13" s="93"/>
     </row>
     <row r="14" spans="1:18" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="92"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="89">
+      <c r="A14" s="101"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="52">
         <v>4</v>
       </c>
-      <c r="G14" s="95" t="s">
+      <c r="G14" s="55" t="s">
         <v>82</v>
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="42" t="s">
         <v>83</v>
       </c>
+      <c r="J14" s="93"/>
     </row>
     <row r="15" spans="1:18" s="5" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="92"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="89">
+      <c r="A15" s="101"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="52">
         <v>5</v>
       </c>
-      <c r="G15" s="95" t="s">
+      <c r="G15" s="55" t="s">
         <v>84</v>
       </c>
       <c r="H15" s="42"/>
       <c r="I15" s="42" t="s">
         <v>87</v>
       </c>
+      <c r="J15" s="93"/>
     </row>
     <row r="16" spans="1:18" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="92"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="89">
+      <c r="A16" s="101"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="52">
         <v>6</v>
       </c>
-      <c r="G16" s="95"/>
+      <c r="G16" s="55"/>
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
-    </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="85"/>
-      <c r="B17" s="100" t="s">
+      <c r="J16" s="94"/>
+    </row>
+    <row r="17" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="100"/>
+      <c r="B17" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="88" t="s">
+      <c r="D17" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="89">
+      <c r="F17" s="52">
         <v>1</v>
       </c>
-      <c r="G17" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91" t="s">
+      <c r="G17" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="96" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="92"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="89">
+      <c r="J17" s="92"/>
+    </row>
+    <row r="18" spans="1:10" s="56" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="101"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="52">
         <v>2</v>
       </c>
-      <c r="G18" s="95" t="s">
+      <c r="G18" s="55" t="s">
         <v>78</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="42" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="92"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="89">
+      <c r="J18" s="93"/>
+    </row>
+    <row r="19" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="101"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="52">
         <v>3</v>
       </c>
-      <c r="G19" s="95" t="s">
+      <c r="G19" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="105" t="s">
+      <c r="H19" s="61" t="s">
         <v>81</v>
       </c>
       <c r="I19" s="42"/>
-    </row>
-    <row r="20" spans="1:9" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="89">
+      <c r="J19" s="93"/>
+    </row>
+    <row r="20" spans="1:10" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="101"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="52">
         <v>4</v>
       </c>
-      <c r="G20" s="95" t="s">
+      <c r="G20" s="55" t="s">
         <v>82</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="5" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="92"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="89">
+      <c r="J20" s="93"/>
+    </row>
+    <row r="21" spans="1:10" s="5" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="101"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="52">
         <v>5</v>
       </c>
-      <c r="G21" s="95" t="s">
+      <c r="G21" s="55" t="s">
         <v>84</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="42" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="5" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="92"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="89">
+      <c r="J21" s="93"/>
+    </row>
+    <row r="22" spans="1:10" s="5" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="101"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="52">
         <v>6</v>
       </c>
-      <c r="G22" s="95" t="s">
+      <c r="G22" s="55" t="s">
         <v>97</v>
       </c>
       <c r="H22" s="42"/>
       <c r="I22" s="42" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="5" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="92"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="89">
+      <c r="J22" s="93"/>
+    </row>
+    <row r="23" spans="1:10" s="5" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="101"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="52">
         <v>7</v>
       </c>
-      <c r="G23" s="95" t="s">
+      <c r="G23" s="55" t="s">
         <v>99</v>
       </c>
       <c r="H23" s="42" t="s">
         <v>100</v>
       </c>
       <c r="I23" s="42"/>
-    </row>
-    <row r="24" spans="1:9" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="92"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="89">
+      <c r="J23" s="93"/>
+    </row>
+    <row r="24" spans="1:10" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="101"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="52">
         <v>8</v>
       </c>
-      <c r="G24" s="95" t="s">
+      <c r="G24" s="55" t="s">
         <v>101</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="42" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="85"/>
-      <c r="B25" s="100" t="s">
+      <c r="J24" s="94"/>
+    </row>
+    <row r="25" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="100"/>
+      <c r="B25" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="86" t="s">
+      <c r="C25" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="87" t="s">
+      <c r="D25" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="E25" s="88" t="s">
+      <c r="E25" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="89">
+      <c r="F25" s="52">
         <v>1</v>
       </c>
-      <c r="G25" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91" t="s">
+      <c r="G25" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="96" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="92"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="89">
+      <c r="J25" s="92"/>
+    </row>
+    <row r="26" spans="1:10" s="56" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="101"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="52">
         <v>2</v>
       </c>
-      <c r="G26" s="95" t="s">
+      <c r="G26" s="55" t="s">
         <v>78</v>
       </c>
       <c r="H26" s="42"/>
       <c r="I26" s="42" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="92"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="89">
+      <c r="J26" s="93"/>
+    </row>
+    <row r="27" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="101"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="52">
         <v>3</v>
       </c>
-      <c r="G27" s="95" t="s">
+      <c r="G27" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="H27" s="105" t="s">
+      <c r="H27" s="61" t="s">
         <v>81</v>
       </c>
       <c r="I27" s="42"/>
-    </row>
-    <row r="28" spans="1:9" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="92"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="89">
+      <c r="J27" s="93"/>
+    </row>
+    <row r="28" spans="1:10" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="101"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="52">
         <v>4</v>
       </c>
-      <c r="G28" s="95" t="s">
+      <c r="G28" s="55" t="s">
         <v>82</v>
       </c>
       <c r="H28" s="42"/>
       <c r="I28" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" s="5" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="92"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="89">
+      <c r="J28" s="93"/>
+    </row>
+    <row r="29" spans="1:10" s="5" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="101"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="52">
         <v>5</v>
       </c>
-      <c r="G29" s="95" t="s">
+      <c r="G29" s="55" t="s">
         <v>84</v>
       </c>
       <c r="H29" s="42"/>
       <c r="I29" s="42" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" s="5" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="92"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="89">
+      <c r="J29" s="93"/>
+    </row>
+    <row r="30" spans="1:10" s="5" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="101"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="52">
         <v>6</v>
       </c>
-      <c r="G30" s="95" t="s">
+      <c r="G30" s="55" t="s">
         <v>97</v>
       </c>
       <c r="H30" s="42"/>
       <c r="I30" s="42" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" s="5" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="92"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="89">
+      <c r="J30" s="93"/>
+    </row>
+    <row r="31" spans="1:10" s="5" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="101"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="52">
         <v>7</v>
       </c>
-      <c r="G31" s="95" t="s">
+      <c r="G31" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="H31" s="103" t="s">
+      <c r="H31" s="60" t="s">
         <v>105</v>
       </c>
       <c r="I31" s="42"/>
-    </row>
-    <row r="32" spans="1:9" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="92"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="89">
+      <c r="J31" s="93"/>
+    </row>
+    <row r="32" spans="1:10" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="101"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="52">
         <v>8</v>
       </c>
-      <c r="G32" s="95" t="s">
+      <c r="G32" s="55" t="s">
         <v>101</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="42" t="s">
         <v>106</v>
       </c>
+      <c r="J32" s="94"/>
     </row>
     <row r="33" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="85"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="86" t="s">
+      <c r="A33" s="100"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="87" t="s">
+      <c r="D33" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="88" t="s">
+      <c r="E33" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="89">
+      <c r="F33" s="52">
         <v>1</v>
       </c>
-      <c r="G33" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="H33" s="91"/>
-      <c r="I33" s="91" t="s">
+      <c r="G33" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" s="96" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="92"/>
-      <c r="B34" s="101"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="89">
+      <c r="J33" s="92"/>
+    </row>
+    <row r="34" spans="1:10" s="56" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="101"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="52">
         <v>2</v>
       </c>
-      <c r="G34" s="95" t="s">
+      <c r="G34" s="55" t="s">
         <v>78</v>
       </c>
       <c r="H34" s="42"/>
       <c r="I34" s="42" t="s">
         <v>79</v>
       </c>
+      <c r="J34" s="93"/>
     </row>
     <row r="35" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="92"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="89">
+      <c r="A35" s="101"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="52">
         <v>3</v>
       </c>
-      <c r="G35" s="95" t="s">
+      <c r="G35" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="H35" s="105" t="s">
+      <c r="H35" s="61" t="s">
         <v>81</v>
       </c>
       <c r="I35" s="42"/>
+      <c r="J35" s="93"/>
     </row>
     <row r="36" spans="1:10" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="92"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="89">
+      <c r="A36" s="101"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="52">
         <v>4</v>
       </c>
-      <c r="G36" s="95" t="s">
+      <c r="G36" s="55" t="s">
         <v>82</v>
       </c>
       <c r="H36" s="42"/>
       <c r="I36" s="42" t="s">
         <v>83</v>
       </c>
+      <c r="J36" s="93"/>
     </row>
     <row r="37" spans="1:10" s="5" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="92"/>
-      <c r="B37" s="101"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="89">
+      <c r="A37" s="101"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="52">
         <v>5</v>
       </c>
-      <c r="G37" s="95" t="s">
+      <c r="G37" s="55" t="s">
         <v>84</v>
       </c>
       <c r="H37" s="42"/>
       <c r="I37" s="42" t="s">
         <v>87</v>
       </c>
+      <c r="J37" s="93"/>
     </row>
     <row r="38" spans="1:10" s="5" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="92"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="89">
+      <c r="A38" s="101"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="52">
         <v>6</v>
       </c>
-      <c r="G38" s="95" t="s">
+      <c r="G38" s="55" t="s">
         <v>97</v>
       </c>
       <c r="H38" s="42"/>
       <c r="I38" s="42" t="s">
         <v>98</v>
       </c>
+      <c r="J38" s="93"/>
     </row>
     <row r="39" spans="1:10" s="5" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="92"/>
-      <c r="B39" s="101"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="89">
+      <c r="A39" s="101"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="52">
         <v>7</v>
       </c>
-      <c r="G39" s="95" t="s">
+      <c r="G39" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="H39" s="103" t="s">
+      <c r="H39" s="60" t="s">
         <v>108</v>
       </c>
       <c r="I39" s="42"/>
+      <c r="J39" s="93"/>
     </row>
     <row r="40" spans="1:10" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="92"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="89">
+      <c r="A40" s="101"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="52">
         <v>8</v>
       </c>
-      <c r="G40" s="95" t="s">
+      <c r="G40" s="55" t="s">
         <v>101</v>
       </c>
       <c r="H40" s="42"/>
       <c r="I40" s="42" t="s">
         <v>106</v>
       </c>
+      <c r="J40" s="94"/>
     </row>
     <row r="41" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="110"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
       <c r="J41" s="49"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="115"/>
-      <c r="B42" s="106" t="s">
+      <c r="A42" s="120"/>
+      <c r="B42" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="82" t="s">
+      <c r="C42" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="111" t="s">
+      <c r="D42" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="113" t="s">
+      <c r="E42" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="89">
+      <c r="F42" s="52">
         <v>1</v>
       </c>
-      <c r="G42" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="H42" s="91"/>
-      <c r="I42" s="91" t="s">
+      <c r="G42" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" s="96" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="92"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="89">
+      <c r="J42" s="92"/>
+    </row>
+    <row r="43" spans="1:10" s="56" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="101"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="52">
         <v>2</v>
       </c>
-      <c r="G43" s="95" t="s">
+      <c r="G43" s="55" t="s">
         <v>78</v>
       </c>
       <c r="H43" s="42"/>
       <c r="I43" s="42" t="s">
         <v>79</v>
       </c>
+      <c r="J43" s="93"/>
     </row>
     <row r="44" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="92"/>
-      <c r="B44" s="107"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="89">
+      <c r="A44" s="101"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="52">
         <v>3</v>
       </c>
-      <c r="G44" s="95" t="s">
+      <c r="G44" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="H44" s="105" t="s">
+      <c r="H44" s="61" t="s">
         <v>81</v>
       </c>
       <c r="I44" s="42"/>
+      <c r="J44" s="93"/>
     </row>
     <row r="45" spans="1:10" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="92"/>
-      <c r="B45" s="107"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="93"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="89">
+      <c r="A45" s="101"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="52">
         <v>4</v>
       </c>
-      <c r="G45" s="95" t="s">
+      <c r="G45" s="55" t="s">
         <v>82</v>
       </c>
       <c r="H45" s="42"/>
       <c r="I45" s="42" t="s">
         <v>83</v>
       </c>
+      <c r="J45" s="93"/>
     </row>
     <row r="46" spans="1:10" s="5" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="92"/>
-      <c r="B46" s="107"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="93"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="89">
+      <c r="A46" s="101"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="109"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="52">
         <v>5</v>
       </c>
-      <c r="G46" s="95" t="s">
+      <c r="G46" s="55" t="s">
         <v>84</v>
       </c>
       <c r="H46" s="42"/>
       <c r="I46" s="42" t="s">
         <v>87</v>
       </c>
+      <c r="J46" s="93"/>
     </row>
     <row r="47" spans="1:10" s="5" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="116"/>
-      <c r="B47" s="108"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="89">
+      <c r="A47" s="121"/>
+      <c r="B47" s="99"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="119"/>
+      <c r="F47" s="52">
         <v>6</v>
       </c>
-      <c r="G47" s="95" t="s">
+      <c r="G47" s="55" t="s">
         <v>97</v>
       </c>
       <c r="H47" s="42"/>
       <c r="I47" s="42" t="s">
         <v>91</v>
       </c>
+      <c r="J47" s="94"/>
     </row>
     <row r="48" spans="1:10" s="5" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="97"/>
-      <c r="B48" s="109" t="s">
+      <c r="A48" s="57"/>
+      <c r="B48" s="62" t="s">
         <v>69</v>
       </c>
       <c r="C48" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D48" s="98" t="s">
+      <c r="D48" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="E48" s="99" t="s">
+      <c r="E48" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F48" s="89">
+      <c r="F48" s="52">
         <v>1</v>
       </c>
-      <c r="G48" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="H48" s="91"/>
-      <c r="I48" s="91" t="s">
+      <c r="G48" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="85"/>
-      <c r="B49" s="104" t="s">
+    <row r="49" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="100"/>
+      <c r="B49" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="82" t="s">
+      <c r="C49" s="114" t="s">
         <v>112</v>
       </c>
-      <c r="D49" s="111" t="s">
+      <c r="D49" s="116" t="s">
         <v>114</v>
       </c>
-      <c r="E49" s="113" t="s">
+      <c r="E49" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="F49" s="89">
+      <c r="F49" s="52">
         <v>1</v>
       </c>
-      <c r="G49" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="H49" s="91"/>
-      <c r="I49" s="91" t="s">
+      <c r="G49" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" s="96" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="92"/>
-      <c r="B50" s="102"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="89">
+      <c r="J49" s="92"/>
+    </row>
+    <row r="50" spans="1:10" s="56" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="101"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="117"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="52">
         <v>2</v>
       </c>
-      <c r="G50" s="95" t="s">
+      <c r="G50" s="55" t="s">
         <v>78</v>
       </c>
       <c r="H50" s="42"/>
       <c r="I50" s="42" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="85"/>
-      <c r="B51" s="100" t="s">
+      <c r="J50" s="94"/>
+    </row>
+    <row r="51" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="100"/>
+      <c r="B51" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="86" t="s">
+      <c r="C51" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="D51" s="87" t="s">
+      <c r="D51" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="88" t="s">
+      <c r="E51" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="F51" s="89">
+      <c r="F51" s="52">
         <v>1</v>
       </c>
-      <c r="G51" s="90" t="s">
+      <c r="G51" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="H51" s="91"/>
-      <c r="I51" s="91" t="s">
+      <c r="H51" s="54"/>
+      <c r="I51" s="54" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" s="96" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="92"/>
-      <c r="B52" s="101"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="89">
+      <c r="J51" s="92"/>
+    </row>
+    <row r="52" spans="1:10" s="56" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="101"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="109"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="52">
         <v>2</v>
       </c>
-      <c r="G52" s="95" t="s">
+      <c r="G52" s="55" t="s">
         <v>78</v>
       </c>
       <c r="H52" s="42"/>
       <c r="I52" s="42" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="92"/>
-      <c r="B53" s="101"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="89">
+      <c r="J52" s="93"/>
+    </row>
+    <row r="53" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="101"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="109"/>
+      <c r="D53" s="111"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="52">
         <v>3</v>
       </c>
-      <c r="G53" s="95" t="s">
+      <c r="G53" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="H53" s="105" t="s">
+      <c r="H53" s="61" t="s">
         <v>81</v>
       </c>
       <c r="I53" s="42"/>
-    </row>
-    <row r="54" spans="1:9" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="92"/>
-      <c r="B54" s="101"/>
-      <c r="C54" s="83"/>
-      <c r="D54" s="93"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="89">
+      <c r="J53" s="93"/>
+    </row>
+    <row r="54" spans="1:10" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="101"/>
+      <c r="B54" s="107"/>
+      <c r="C54" s="109"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="52">
         <v>4</v>
       </c>
-      <c r="G54" s="95" t="s">
+      <c r="G54" s="55" t="s">
         <v>82</v>
       </c>
       <c r="H54" s="42"/>
       <c r="I54" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="85"/>
-      <c r="B55" s="100" t="s">
+      <c r="J54" s="94"/>
+    </row>
+    <row r="55" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="100"/>
+      <c r="B55" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="86" t="s">
+      <c r="C55" s="108" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="87" t="s">
+      <c r="D55" s="110" t="s">
         <v>119</v>
       </c>
-      <c r="E55" s="88" t="s">
+      <c r="E55" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="F55" s="89">
+      <c r="F55" s="52">
         <v>1</v>
       </c>
-      <c r="G55" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="H55" s="91"/>
-      <c r="I55" s="91" t="s">
+      <c r="G55" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" s="96" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="92"/>
-      <c r="B56" s="101"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="89">
+      <c r="J55" s="92"/>
+    </row>
+    <row r="56" spans="1:10" s="56" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="101"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="109"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="52">
         <v>2</v>
       </c>
-      <c r="G56" s="95" t="s">
+      <c r="G56" s="55" t="s">
         <v>78</v>
       </c>
       <c r="H56" s="42"/>
       <c r="I56" s="42" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="92"/>
-      <c r="B57" s="101"/>
-      <c r="C57" s="83"/>
-      <c r="D57" s="93"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="89">
+      <c r="J56" s="93"/>
+    </row>
+    <row r="57" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="101"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="109"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="52">
         <v>3</v>
       </c>
-      <c r="G57" s="95" t="s">
+      <c r="G57" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="H57" s="105" t="s">
+      <c r="H57" s="61" t="s">
         <v>120</v>
       </c>
       <c r="I57" s="42"/>
-    </row>
-    <row r="58" spans="1:9" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="92"/>
-      <c r="B58" s="101"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="93"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="89">
+      <c r="J57" s="93"/>
+    </row>
+    <row r="58" spans="1:10" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="101"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="52">
         <v>4</v>
       </c>
-      <c r="G58" s="95" t="s">
+      <c r="G58" s="55" t="s">
         <v>82</v>
       </c>
       <c r="H58" s="42"/>
       <c r="I58" s="42" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="85"/>
-      <c r="B59" s="86" t="s">
+      <c r="J58" s="93"/>
+    </row>
+    <row r="59" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="100"/>
+      <c r="B59" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="86" t="s">
+      <c r="C59" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="87" t="s">
+      <c r="D59" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="E59" s="88" t="s">
+      <c r="E59" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="89">
+      <c r="F59" s="52">
         <v>1</v>
       </c>
-      <c r="G59" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="H59" s="91"/>
-      <c r="I59" s="91" t="s">
+      <c r="G59" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" s="96" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="92"/>
-      <c r="B60" s="83"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="93"/>
-      <c r="E60" s="94"/>
-      <c r="F60" s="89">
+      <c r="J59" s="92"/>
+    </row>
+    <row r="60" spans="1:10" s="56" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="101"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="111"/>
+      <c r="E60" s="105"/>
+      <c r="F60" s="52">
         <v>2</v>
       </c>
-      <c r="G60" s="95" t="s">
+      <c r="G60" s="55" t="s">
         <v>78</v>
       </c>
       <c r="H60" s="42"/>
       <c r="I60" s="42" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="92"/>
-      <c r="B61" s="83"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="93"/>
-      <c r="E61" s="94"/>
-      <c r="F61" s="89">
+      <c r="J60" s="93"/>
+    </row>
+    <row r="61" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="101"/>
+      <c r="B61" s="109"/>
+      <c r="C61" s="109"/>
+      <c r="D61" s="111"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="52">
         <v>3</v>
       </c>
-      <c r="G61" s="95" t="s">
+      <c r="G61" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="H61" s="117" t="s">
+      <c r="H61" s="63" t="s">
         <v>105</v>
       </c>
       <c r="I61" s="42"/>
-    </row>
-    <row r="62" spans="1:9" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="92"/>
-      <c r="B62" s="83"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="89">
+      <c r="J61" s="93"/>
+    </row>
+    <row r="62" spans="1:10" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="101"/>
+      <c r="B62" s="109"/>
+      <c r="C62" s="109"/>
+      <c r="D62" s="111"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="52">
         <v>4</v>
       </c>
-      <c r="G62" s="95" t="s">
+      <c r="G62" s="55" t="s">
         <v>82</v>
       </c>
       <c r="H62" s="42"/>
       <c r="I62" s="42" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="85"/>
-      <c r="B63" s="83"/>
-      <c r="C63" s="86" t="s">
+      <c r="J62" s="94"/>
+    </row>
+    <row r="63" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="100"/>
+      <c r="B63" s="109"/>
+      <c r="C63" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="D63" s="87" t="s">
+      <c r="D63" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="E63" s="88" t="s">
+      <c r="E63" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="F63" s="89">
+      <c r="F63" s="52">
         <v>1</v>
       </c>
-      <c r="G63" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="H63" s="91"/>
-      <c r="I63" s="91" t="s">
+      <c r="G63" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" s="96" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="92"/>
-      <c r="B64" s="83"/>
-      <c r="C64" s="83"/>
-      <c r="D64" s="93"/>
-      <c r="E64" s="94"/>
-      <c r="F64" s="89">
+      <c r="J63" s="92"/>
+    </row>
+    <row r="64" spans="1:10" s="56" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="101"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="111"/>
+      <c r="E64" s="105"/>
+      <c r="F64" s="52">
         <v>2</v>
       </c>
-      <c r="G64" s="95" t="s">
+      <c r="G64" s="55" t="s">
         <v>78</v>
       </c>
       <c r="H64" s="42"/>
       <c r="I64" s="42" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="92"/>
-      <c r="B65" s="83"/>
-      <c r="C65" s="83"/>
-      <c r="D65" s="93"/>
-      <c r="E65" s="94"/>
-      <c r="F65" s="89">
+      <c r="J64" s="93"/>
+    </row>
+    <row r="65" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="101"/>
+      <c r="B65" s="109"/>
+      <c r="C65" s="109"/>
+      <c r="D65" s="111"/>
+      <c r="E65" s="105"/>
+      <c r="F65" s="52">
         <v>3</v>
       </c>
-      <c r="G65" s="95" t="s">
+      <c r="G65" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="H65" s="117" t="s">
+      <c r="H65" s="63" t="s">
         <v>123</v>
       </c>
       <c r="I65" s="42"/>
-    </row>
-    <row r="66" spans="1:9" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="92"/>
-      <c r="B66" s="83"/>
-      <c r="C66" s="83"/>
-      <c r="D66" s="93"/>
-      <c r="E66" s="94"/>
-      <c r="F66" s="89">
+      <c r="J65" s="93"/>
+    </row>
+    <row r="66" spans="1:10" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="101"/>
+      <c r="B66" s="109"/>
+      <c r="C66" s="109"/>
+      <c r="D66" s="111"/>
+      <c r="E66" s="105"/>
+      <c r="F66" s="52">
         <v>4</v>
       </c>
-      <c r="G66" s="95" t="s">
+      <c r="G66" s="55" t="s">
         <v>82</v>
       </c>
       <c r="H66" s="42"/>
       <c r="I66" s="42" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="85"/>
-      <c r="B67" s="86" t="s">
+      <c r="J66" s="94"/>
+    </row>
+    <row r="67" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="100"/>
+      <c r="B67" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="C67" s="86" t="s">
+      <c r="C67" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="D67" s="87" t="s">
+      <c r="D67" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="E67" s="88" t="s">
+      <c r="E67" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="F67" s="89">
+      <c r="F67" s="52">
         <v>1</v>
       </c>
-      <c r="G67" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="H67" s="91"/>
-      <c r="I67" s="91" t="s">
+      <c r="G67" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" s="96" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="92"/>
-      <c r="B68" s="83"/>
-      <c r="C68" s="83"/>
-      <c r="D68" s="93"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="89">
+      <c r="J67" s="92"/>
+    </row>
+    <row r="68" spans="1:10" s="56" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="101"/>
+      <c r="B68" s="109"/>
+      <c r="C68" s="109"/>
+      <c r="D68" s="111"/>
+      <c r="E68" s="105"/>
+      <c r="F68" s="52">
         <v>2</v>
       </c>
-      <c r="G68" s="95" t="s">
+      <c r="G68" s="55" t="s">
         <v>78</v>
       </c>
       <c r="H68" s="42"/>
       <c r="I68" s="42" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="92"/>
-      <c r="B69" s="83"/>
-      <c r="C69" s="83"/>
-      <c r="D69" s="93"/>
-      <c r="E69" s="94"/>
-      <c r="F69" s="89">
+      <c r="J68" s="93"/>
+    </row>
+    <row r="69" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="101"/>
+      <c r="B69" s="109"/>
+      <c r="C69" s="109"/>
+      <c r="D69" s="111"/>
+      <c r="E69" s="105"/>
+      <c r="F69" s="52">
         <v>3</v>
       </c>
-      <c r="G69" s="95" t="s">
+      <c r="G69" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="H69" s="105" t="s">
+      <c r="H69" s="61" t="s">
         <v>81</v>
       </c>
       <c r="I69" s="42"/>
-    </row>
-    <row r="70" spans="1:9" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="92"/>
-      <c r="B70" s="83"/>
-      <c r="C70" s="83"/>
-      <c r="D70" s="93"/>
-      <c r="E70" s="94"/>
-      <c r="F70" s="89">
+      <c r="J69" s="93"/>
+    </row>
+    <row r="70" spans="1:10" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="101"/>
+      <c r="B70" s="109"/>
+      <c r="C70" s="109"/>
+      <c r="D70" s="111"/>
+      <c r="E70" s="105"/>
+      <c r="F70" s="52">
         <v>4</v>
       </c>
-      <c r="G70" s="95" t="s">
+      <c r="G70" s="55" t="s">
         <v>82</v>
       </c>
       <c r="H70" s="42"/>
       <c r="I70" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" s="5" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="92"/>
-      <c r="B71" s="83"/>
-      <c r="C71" s="83"/>
-      <c r="D71" s="93"/>
-      <c r="E71" s="94"/>
-      <c r="F71" s="89">
+      <c r="J70" s="93"/>
+    </row>
+    <row r="71" spans="1:10" s="5" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="101"/>
+      <c r="B71" s="109"/>
+      <c r="C71" s="109"/>
+      <c r="D71" s="111"/>
+      <c r="E71" s="105"/>
+      <c r="F71" s="52">
         <v>5</v>
       </c>
-      <c r="G71" s="95" t="s">
+      <c r="G71" s="55" t="s">
         <v>84</v>
       </c>
       <c r="H71" s="42"/>
       <c r="I71" s="42" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" s="5" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="92"/>
-      <c r="B72" s="83"/>
-      <c r="C72" s="83"/>
-      <c r="D72" s="93"/>
-      <c r="E72" s="94"/>
-      <c r="F72" s="89">
+      <c r="J71" s="93"/>
+    </row>
+    <row r="72" spans="1:10" s="5" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="101"/>
+      <c r="B72" s="109"/>
+      <c r="C72" s="109"/>
+      <c r="D72" s="111"/>
+      <c r="E72" s="105"/>
+      <c r="F72" s="52">
         <v>6</v>
       </c>
-      <c r="G72" s="95" t="s">
+      <c r="G72" s="55" t="s">
         <v>97</v>
       </c>
       <c r="H72" s="42"/>
       <c r="I72" s="42" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" s="5" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="92"/>
-      <c r="B73" s="83"/>
-      <c r="C73" s="83"/>
-      <c r="D73" s="93"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="89">
+      <c r="J72" s="93"/>
+    </row>
+    <row r="73" spans="1:10" s="5" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="101"/>
+      <c r="B73" s="109"/>
+      <c r="C73" s="109"/>
+      <c r="D73" s="111"/>
+      <c r="E73" s="105"/>
+      <c r="F73" s="52">
         <v>7</v>
       </c>
-      <c r="G73" s="95" t="s">
+      <c r="G73" s="55" t="s">
         <v>99</v>
       </c>
       <c r="H73" s="42" t="s">
         <v>100</v>
       </c>
       <c r="I73" s="42"/>
-    </row>
-    <row r="74" spans="1:9" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="92"/>
-      <c r="B74" s="83"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="93"/>
-      <c r="E74" s="94"/>
-      <c r="F74" s="89">
+      <c r="J73" s="93"/>
+    </row>
+    <row r="74" spans="1:10" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="101"/>
+      <c r="B74" s="109"/>
+      <c r="C74" s="109"/>
+      <c r="D74" s="111"/>
+      <c r="E74" s="105"/>
+      <c r="F74" s="52">
         <v>8</v>
       </c>
-      <c r="G74" s="95" t="s">
+      <c r="G74" s="55" t="s">
         <v>101</v>
       </c>
       <c r="H74" s="42"/>
       <c r="I74" s="42" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J74" s="94"/>
+    </row>
+    <row r="75" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H75" s="1" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="74">
     <mergeCell ref="A59:A62"/>
     <mergeCell ref="C59:C62"/>
     <mergeCell ref="D59:D62"/>
     <mergeCell ref="E59:E62"/>
     <mergeCell ref="B59:B66"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="E63:E66"/>
     <mergeCell ref="D51:D54"/>
     <mergeCell ref="E51:E54"/>
     <mergeCell ref="A55:A58"/>
@@ -3819,6 +3919,9 @@
     <mergeCell ref="C55:C58"/>
     <mergeCell ref="D55:D58"/>
     <mergeCell ref="E55:E58"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
     <mergeCell ref="A42:A47"/>
     <mergeCell ref="C42:C47"/>
     <mergeCell ref="D42:D47"/>
@@ -3831,10 +3934,6 @@
     <mergeCell ref="D33:D40"/>
     <mergeCell ref="E33:E40"/>
     <mergeCell ref="B25:B40"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="E63:E66"/>
     <mergeCell ref="A67:A74"/>
     <mergeCell ref="B67:B74"/>
     <mergeCell ref="C67:C74"/>
@@ -3845,30 +3944,39 @@
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="E11:E16"/>
     <mergeCell ref="A17:A24"/>
     <mergeCell ref="B17:B24"/>
     <mergeCell ref="C17:C24"/>
     <mergeCell ref="D17:D24"/>
     <mergeCell ref="E17:E24"/>
+    <mergeCell ref="D5:D10"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="C11:C16"/>
     <mergeCell ref="D11:D16"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="E5:E10"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="D5:D10"/>
     <mergeCell ref="J1:R1"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="B42:B47"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A41:I41"/>
+    <mergeCell ref="J5:J10"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="J17:J24"/>
+    <mergeCell ref="J25:J32"/>
+    <mergeCell ref="J33:J40"/>
+    <mergeCell ref="J42:J47"/>
+    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="J67:J74"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="J51:J54"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="J59:J62"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
